--- a/storage/app/public/datasets_seeders/areas.xlsx
+++ b/storage/app/public/datasets_seeders/areas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\exequ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\exequ\OneDrive\Documents\Clases\HackaDISC\backend-hackadisc\storage\app\public\datasets_seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E38B58B-D69C-4F86-93A9-DB1D5A6C3792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D741AAC-4461-49E4-B5B9-E378D8A95F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>area_id</t>
   </si>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +820,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>956</v>
       </c>
@@ -831,7 +831,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>544</v>
       </c>
@@ -842,7 +842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>238</v>
       </c>
@@ -853,7 +853,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>958</v>
       </c>
@@ -864,7 +864,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>248</v>
       </c>
@@ -875,7 +875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>84</v>
       </c>
@@ -886,7 +886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>111</v>
       </c>
@@ -897,7 +897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>336</v>
       </c>
@@ -906,6 +906,34 @@
       </c>
       <c r="C40">
         <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>500</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>117</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>600</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>122</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/public/datasets_seeders/areas.xlsx
+++ b/storage/app/public/datasets_seeders/areas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\exequ\OneDrive\Documents\Clases\HackaDISC\backend-hackadisc\storage\app\public\datasets_seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D741AAC-4461-49E4-B5B9-E378D8A95F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B87C8F-464C-4DBD-A363-BB2FB0DFAC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>16</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
